--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_Sieve Bootstrap_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_Sieve Bootstrap_General.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.5362462474185001</v>
+        <v>0.7411977073101284</v>
       </c>
       <c r="D2">
-        <v>0.6478248668423678</v>
+        <v>0.6953172266069783</v>
       </c>
       <c r="E2">
-        <v>0.7037696312174466</v>
+        <v>0.691196157911945</v>
       </c>
       <c r="F2">
-        <v>0.8424573665445676</v>
+        <v>0.8727831780625785</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5362462474185001</v>
+        <v>0.7411977073101284</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.9614673454444262</v>
+        <v>0.9700568259076627</v>
       </c>
       <c r="E3">
-        <v>0.7708685970508937</v>
+        <v>0.8371838364103432</v>
       </c>
       <c r="F3">
-        <v>0.622706480469061</v>
+        <v>0.6648893101372944</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6478248668423678</v>
+        <v>0.6953172266069783</v>
       </c>
       <c r="C4">
-        <v>0.9614673454444262</v>
+        <v>0.9700568259076627</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.8111960534445548</v>
+        <v>0.8015557060228455</v>
       </c>
       <c r="F4">
-        <v>0.6683682826515969</v>
+        <v>0.6912865039246854</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7037696312174466</v>
+        <v>0.691196157911945</v>
       </c>
       <c r="C5">
-        <v>0.7708685970508937</v>
+        <v>0.8371838364103432</v>
       </c>
       <c r="D5">
-        <v>0.8111960534445548</v>
+        <v>0.8015557060228455</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.8442849767751421</v>
+        <v>0.848709224014087</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8424573665445676</v>
+        <v>0.8727831780625785</v>
       </c>
       <c r="C6">
-        <v>0.622706480469061</v>
+        <v>0.6648893101372944</v>
       </c>
       <c r="D6">
-        <v>0.6683682826515969</v>
+        <v>0.6912865039246854</v>
       </c>
       <c r="E6">
-        <v>0.8442849767751421</v>
+        <v>0.848709224014087</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.6186479065474362</v>
+        <v>0.3344631918642363</v>
       </c>
       <c r="D2">
-        <v>0.4568819353594626</v>
+        <v>0.3968285104233975</v>
       </c>
       <c r="E2">
-        <v>0.3803124384220224</v>
+        <v>0.4025057226320155</v>
       </c>
       <c r="F2">
-        <v>0.1987871028084185</v>
+        <v>0.1620017124876339</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.6186479065474362</v>
+        <v>-0.3344631918642363</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.04832072196025321</v>
+        <v>-0.03796647776099236</v>
       </c>
       <c r="E3">
-        <v>-0.2912938170511172</v>
+        <v>-0.2079463849863685</v>
       </c>
       <c r="F3">
-        <v>-0.4921243856402217</v>
+        <v>-0.4390751520159932</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.4568819353594626</v>
+        <v>-0.3968285104233975</v>
       </c>
       <c r="C4">
-        <v>0.04832072196025321</v>
+        <v>0.03796647776099236</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-0.2389272029411796</v>
+        <v>-0.2543916657058904</v>
       </c>
       <c r="F4">
-        <v>-0.4284766141664091</v>
+        <v>-0.4023811175816107</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.3803124384220224</v>
+        <v>-0.4025057226320155</v>
       </c>
       <c r="C5">
-        <v>0.2912938170511172</v>
+        <v>0.2079463849863685</v>
       </c>
       <c r="D5">
-        <v>0.2389272029411796</v>
+        <v>0.2543916657058904</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.1964509289831179</v>
+        <v>-0.1930263597917401</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.1987871028084185</v>
+        <v>-0.1620017124876339</v>
       </c>
       <c r="C6">
-        <v>0.4921243856402217</v>
+        <v>0.4390751520159932</v>
       </c>
       <c r="D6">
-        <v>0.4284766141664091</v>
+        <v>0.4023811175816107</v>
       </c>
       <c r="E6">
-        <v>0.1964509289831179</v>
+        <v>0.1930263597917401</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_Sieve Bootstrap_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_Sieve Bootstrap_General.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.7411977073101284</v>
+        <v>0.1435892745491461</v>
       </c>
       <c r="D2">
-        <v>0.6953172266069783</v>
+        <v>0.5533114454173682</v>
       </c>
       <c r="E2">
-        <v>0.691196157911945</v>
+        <v>0.4132180923177602</v>
       </c>
       <c r="F2">
-        <v>0.8727831780625785</v>
+        <v>0.2443656005168642</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7411977073101284</v>
+        <v>0.1435892745491461</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.9700568259076627</v>
+        <v>0.007598807987238221</v>
       </c>
       <c r="E3">
-        <v>0.8371838364103432</v>
+        <v>0.06573371445480003</v>
       </c>
       <c r="F3">
-        <v>0.6648893101372944</v>
+        <v>0.9420549026401734</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6953172266069783</v>
+        <v>0.5533114454173682</v>
       </c>
       <c r="C4">
-        <v>0.9700568259076627</v>
+        <v>0.007598807987238221</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.8015557060228455</v>
+        <v>0.9518456714991559</v>
       </c>
       <c r="F4">
-        <v>0.6912865039246854</v>
+        <v>0.1690532320831144</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.691196157911945</v>
+        <v>0.4132180923177602</v>
       </c>
       <c r="C5">
-        <v>0.8371838364103432</v>
+        <v>0.06573371445480003</v>
       </c>
       <c r="D5">
-        <v>0.8015557060228455</v>
+        <v>0.9518456714991559</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.848709224014087</v>
+        <v>0.08612994050937695</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8727831780625785</v>
+        <v>0.2443656005168642</v>
       </c>
       <c r="C6">
-        <v>0.6648893101372944</v>
+        <v>0.9420549026401734</v>
       </c>
       <c r="D6">
-        <v>0.6912865039246854</v>
+        <v>0.1690532320831144</v>
       </c>
       <c r="E6">
-        <v>0.848709224014087</v>
+        <v>0.08612994050937695</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3344631918642363</v>
+        <v>1.497118006471387</v>
       </c>
       <c r="D2">
-        <v>0.3968285104233975</v>
+        <v>-0.5987450636893505</v>
       </c>
       <c r="E2">
-        <v>0.4025057226320155</v>
+        <v>-0.8284062336326655</v>
       </c>
       <c r="F2">
-        <v>0.1620017124876339</v>
+        <v>1.184663822868703</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.3344631918642363</v>
+        <v>-1.497118006471387</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.03796647776099236</v>
+        <v>-2.838199281938781</v>
       </c>
       <c r="E3">
-        <v>-0.2079463849863685</v>
+        <v>-1.901534877923249</v>
       </c>
       <c r="F3">
-        <v>-0.4390751520159932</v>
+        <v>-0.07322660359764448</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.3968285104233975</v>
+        <v>0.5987450636893505</v>
       </c>
       <c r="C4">
-        <v>0.03796647776099236</v>
+        <v>2.838199281938781</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-0.2543916657058904</v>
+        <v>0.0608364472837086</v>
       </c>
       <c r="F4">
-        <v>-0.4023811175816107</v>
+        <v>1.405133282297728</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.4025057226320155</v>
+        <v>0.8284062336326655</v>
       </c>
       <c r="C5">
-        <v>0.2079463849863685</v>
+        <v>1.901534877923249</v>
       </c>
       <c r="D5">
-        <v>0.2543916657058904</v>
+        <v>-0.0608364472837086</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.1930263597917401</v>
+        <v>1.767438150639078</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.1620017124876339</v>
+        <v>-1.184663822868703</v>
       </c>
       <c r="C6">
-        <v>0.4390751520159932</v>
+        <v>0.07322660359764448</v>
       </c>
       <c r="D6">
-        <v>0.4023811175816107</v>
+        <v>-1.405133282297728</v>
       </c>
       <c r="E6">
-        <v>0.1930263597917401</v>
+        <v>-1.767438150639078</v>
       </c>
       <c r="F6">
         <v>0</v>
